--- a/webscrapping school/sciencedirect2/collected_data.xlsx
+++ b/webscrapping school/sciencedirect2/collected_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="613">
   <si>
     <t>Link</t>
   </si>
@@ -121,7 +121,1770 @@
     <t>https://www.sciencedirect.com//science/article/pii/S1875389211001283</t>
   </si>
   <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0007850611002083</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1359646211001461</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0924013611000306</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389211001982</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0007850611002071</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S135964541100440X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1010518211000096</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0167577X12000390</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0261306911005590</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389212025941</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389212025953</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S092150931101197X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389212026247</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389212025916</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0167577X12006088</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S187538921202593X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389212025734</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S092401361100344X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389212025850</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389212025849</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1359646212002540</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1369702112701943</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780444533494002028</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1385894711012484</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1359645412002522</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389212025904</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0955221912001380</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389212025655</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0955221911006431</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780857090263500046</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0007850612002016</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780444533494002806</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389213001752</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S009784931300085X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827113000504</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389213001727</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1044580313002465</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0924013613001039</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0924013612003020</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0169433212020168</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B978145572852700010X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0955221913000022</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0921509313010010</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0924013613001374</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S014211231200343X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389213001673</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827113006720</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827113003806</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0928493112004407</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1350453312001415</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1877050913005267</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389213001764</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0257897213008426</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780857094209500180</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1369702113000199</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0109564113001152</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827113006781</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827113003922</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0007850613001911</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0007850613001972</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S003039921300176X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780123854698000320</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0169409X12002311</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S187538921400265X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1755581713000710</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389214002983</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827114003424</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389214003034</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0924013614001691</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389214003058</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389214003046</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0927025614004571</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S187538921400323X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S092849311400441X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389214003009</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389214002478</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389214003010</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1359645414003851</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212017314001273</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0924013614001277</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0013794414000757</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0032591014002988</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0109564114000487</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827114006015</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389214003241</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389214003071</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1751616114001271</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S221282711401141X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780124201453000109</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389214002454</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0007850614001863</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389214003125</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0040162513002114</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0966979514000053</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0921509313011180</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1369702114000224</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1350453314001489</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0925527314000243</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0898122113005944</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0007850614001930</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0261306914000454</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0169433214020601</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0924424713006079</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0257897214002825</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0032386114007162</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827114007732</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1385894713016410</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212017314001583</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0022309314001343</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0257897213011316</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S135964541400370X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1877705814013484</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0921509313012665</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212017314002096</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0901502713002464</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1566119914001529</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212017314001613</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780857096968500073</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780080965277000180</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0007850614001887</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1742706113005631</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827114009317</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0022509613001695</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0921883113001891</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115004576</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0378517315303239</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1877705815044008</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S221282711500863X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115007350</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0007850615001468</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115005156</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115009154</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2214785315008494</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115009142</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1751616115002052</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1877705815003501</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0925527315000547</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0921509315002853</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0167577X15007983</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1525779721010473</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2352431615000577</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2352431615000826</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115009208</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115005387</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1877705815045191</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1877705815024248</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115009361</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0167577X1402271X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S026412751500413X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0924013614002763</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115000037</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115002802</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1742706115300805</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2214860415000020</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389215015370</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1877705815001204</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0257897214007002</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1385894715003447</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2214860415000457</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0959652615005429</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115008422</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0264127515302148</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0014305715003821</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0030399215001784</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1877705815001241</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0924013615000278</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115004199</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115004072</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0142961215000423</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115008598</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780128000540000381</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1877705815024467</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0921509314015366</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0378517315001325</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0043164815003853</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0304885315303802</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S100503021500136X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1369702115003375</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0278239115001998</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0167577X15000786</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0065237715000058</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0957415815000938</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S092401361400288X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1877705815024546</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S092037961400670X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0924013615000667</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780128035818014776</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1359646214004114</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2405896315020650</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0261306914007808</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0966979515000473</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0921883115001223</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1566119915001275</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0966979515300327</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115006654</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1742706115300520</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115009063</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115005399</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0305440314003690</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115005582</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0924013615000564</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1359645415004000</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115000839</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S221282711500503X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0927025615003857</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0925400515300745</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780128000540000198</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S014296121401254X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0007850615001444</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116309416</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116007447</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0007850616301913</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116312847</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116304759</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S221282711630083X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0264127516307481</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2351978916301482</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0032591015301248</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S092702561630324X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0264127515305268</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1359645416305158</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0927796X16000127</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2405896316300131</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2214860416301142</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1751616116301552</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2214785316302577</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0928493115305853</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212017316303851</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0010448516300690</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0921509316306062</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S187538921630164X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0009250915007368</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0264127516311479</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2452321616301652</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116312823</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S003040181630298X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389216302073</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389216301894</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0736584515301642</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S002980181500699X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0169409X16302265</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116303912</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115011439</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115010811</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0264127516311042</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2452321616303985</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S187538921630205X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1359645416304530</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1359645416301033</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0007850616300579</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1525779721011235</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0142941816305980</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116304966</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2352340916000299</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0966979516300206</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2452321616303936</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389216301936</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S092150931630822X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0955221915302806</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S221282711630289X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0264127516305913</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0921509316305536</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2214860416300562</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2214860416300161</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0921509316312205</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0167577X15307850</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0142941816302057</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S134900791630038X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0957415815000690</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S221465711630034X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0079670016000022</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0009250916304894</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1359645416304281</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1742706116303919</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389216301821</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1742706115302269</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0920586116301572</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1742706115301884</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0264127515305578</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S221192641630217X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780323353212000182</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389216301924</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389216301511</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389216302127</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389216301857</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389216302036</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389216301729</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0040162515002292</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116312811</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389216302103</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115011269</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1875389216302061</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116304140</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116303985</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0264127516302805</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0264127516300958</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116304930</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116003899</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0928493116305859</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0257897216300755</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115011579</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0264127516307894</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115007970</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116309672</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0263822316303464</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0920586116302541</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1566119916304542</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0166361516301944</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0007850616301986</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1385894715016563</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116305200</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S092583881531375X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2352146516308742</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S221282711600144X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116001116</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0169433216000726</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S136970211500317X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827115007891</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2214785316302991</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780081005743000126</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212017316303504</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0921509316304804</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116002225</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116304899</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2352179115301204</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1755581715000668</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0022309315302568</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0263822315009198</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0007850616301950</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2214860416301130</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S221201731630370X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0007850616300555</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2405886616300045</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2352431616301134</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116302827</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116308782</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116312471</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2405896316317219</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116311593</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116311568</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2405896316321000</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0264127516306761</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0169433216311539</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0142112316301542</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1742706116304184</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0928493115304793</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S221282711630470X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0141813016303531</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0020768316302724</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0007850616301949</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0021999115008712</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0022509615300995</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0032591016306234</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0166361516300902</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B978032337023300004X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2351978917300343</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116312987</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0040162517300276</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1877705817358423</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0007850617301506</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827117300288</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827117302330</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2095809917307087</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S002606571730005X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827117300471</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827117302196</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0142112316300871</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0928493116311183</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827117301233</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1871678416324980</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S221282711730464X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1877705817358411</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827117306443</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2405844017306680</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0928493117308214</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780081004333000117</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2452321617304122</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780081004333000178</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0142112316301207</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1755581717300238</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1751616117303041</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780081004333000063</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0142112317302153</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2352940717302123</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2468451117300156</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0264127516315696</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780081004333000105</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2214860416302822</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1751616116303241</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780081004333000154</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2351978917307989</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116306783</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2351978917307977</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1359645417301702</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2352146517307585</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0264127516314277</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0167577X17308261</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2095927317302475</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827117302548</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1877705817315114</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0955221917303990</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2214860416300495</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116313415</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0955221917302005</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0017931016306111</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780081004333000038</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0924013617301449</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1755581716300621</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S221282711730118X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0921509317308559</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2468451117300089</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1877705817359283</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0924013617301619</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827117300422</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2452321617304250</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0030399216307459</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0264127517307128</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0921509317310109</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S209044791630154X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0921509317301338</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0264127517304756</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S221282711730495X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0032591017300177</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780081004333000166</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2210983817300676</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0169433217316392</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0264127517308225</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0734975017300885</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2214860417301604</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0142112316301475</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0167577X17309977</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0924013616304150</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S135964541630982X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0022509616307608</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1359431116323341</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0378517317304982</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0264127517308018</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S092401361730095X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1359835X17300568</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780081004333010022</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S221486041630344X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1759995422055358</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0167577X17304330</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2351978917303670</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0264127516315222</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2351978917301646</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0960148117306997</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0142941817309170</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827116314342</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2351978917303773</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1385894717308707</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0026065716300170</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780128012383998726</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0925838816336908</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0925527317303328</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2351978917301233</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2351978917301610</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S193172041630112X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0925838816343584</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0901502717302266</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0272884217306570</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0264127516313375</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827117300203</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0925838817323289</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S2212827117307126</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0956713516302146</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780128035818100967</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1010518217302548</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1369702117301220</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1755581717300093</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1359646216303475</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B9780128035818101298</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0032386116310400</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S1877705817358824</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0032591017304916</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0003267017307857</t>
+  </si>
+  <si>
+    <t>J. Eckert b c</t>
+  </si>
+  <si>
+    <t>Minghui Hong b</t>
+  </si>
+  <si>
+    <t>C.K. Chua (Guest Editor) b</t>
+  </si>
+  <si>
+    <t>Dongdong Gu a</t>
+  </si>
+  <si>
+    <t>Dongdong Gu a b</t>
+  </si>
+  <si>
+    <t>M. Hofmann b</t>
+  </si>
+  <si>
+    <t>H.J. Maier a b</t>
+  </si>
+  <si>
+    <t>Jens Günster c</t>
+  </si>
+  <si>
+    <t>Jens Günster b</t>
+  </si>
+  <si>
+    <t>H.J. Maier b c</t>
+  </si>
+  <si>
+    <t>R.J. Friel a</t>
+  </si>
+  <si>
+    <t>H.J. Maier a d</t>
+  </si>
+  <si>
+    <t>Sergio Scudino 1</t>
+  </si>
+  <si>
+    <t>Arndt Guentsch a b</t>
+  </si>
+  <si>
+    <t>Dongdong Gu b</t>
+  </si>
+  <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Jürgen Eckert a</t>
+  </si>
+  <si>
+    <t>Sannakaisa Virtanen a</t>
+  </si>
+  <si>
+    <t>Andreas Weisheit a</t>
+  </si>
+  <si>
+    <t>K.G. Prashanth a</t>
+  </si>
+  <si>
+    <t>Krisztina Demeter</t>
+  </si>
+  <si>
+    <t>Andreas Weisheit c</t>
+  </si>
+  <si>
+    <t>N. Ciftci a</t>
+  </si>
+  <si>
+    <t>Sergio Scudino b</t>
+  </si>
+  <si>
+    <t>S. Scudino b</t>
+  </si>
+  <si>
+    <t>A. Erman Tekkaya</t>
+  </si>
+  <si>
+    <t>Dongdong Gu b c</t>
+  </si>
+  <si>
+    <t>S. Scudino a</t>
+  </si>
+  <si>
+    <t>Konda G. Prashanth a</t>
+  </si>
+  <si>
+    <t>K.G. Prashanth b</t>
+  </si>
+  <si>
+    <t>A.H. Taghvaei a</t>
+  </si>
+  <si>
+    <t>Konda G. Prashanth 2</t>
+  </si>
+  <si>
+    <t>Birgit Vogel-Heuser</t>
+  </si>
+  <si>
+    <t>A. Kostka</t>
+  </si>
+  <si>
+    <t>Thomas Scheper</t>
+  </si>
+  <si>
+    <t>Christian Brecher (1) b</t>
+  </si>
+  <si>
+    <t>Michael Hofmann e</t>
+  </si>
+  <si>
+    <t>A. Weisheit b</t>
+  </si>
+  <si>
+    <t>Gisela Lanza</t>
+  </si>
+  <si>
+    <t>Matteo Pavese a</t>
+  </si>
+  <si>
+    <t>J. Eckert a c 1</t>
+  </si>
+  <si>
+    <t>J. Eckert a b</t>
+  </si>
+  <si>
+    <t>J. Eckert a b c</t>
+  </si>
+  <si>
+    <t>Andreas Ostendorf a</t>
+  </si>
+  <si>
+    <t>Konda Gokuldoss Prashanth d</t>
+  </si>
+  <si>
+    <t>Eduard Hryha a</t>
+  </si>
+  <si>
+    <t>J. Matějíček b</t>
+  </si>
+  <si>
+    <t>C. Brecher</t>
+  </si>
+  <si>
+    <t>N. Ciftci a c</t>
+  </si>
+  <si>
+    <t>H.J. Maier d</t>
+  </si>
+  <si>
+    <t>C. Brecher b</t>
+  </si>
+  <si>
+    <t>A.E. Tekkaya (1) j</t>
+  </si>
+  <si>
+    <t>B. Vogel-Heuser b</t>
+  </si>
+  <si>
+    <t>A. Weidner a</t>
+  </si>
+  <si>
+    <t>H.J. Maier b</t>
+  </si>
+  <si>
+    <t>Alexander M. Rubenchik b</t>
+  </si>
+  <si>
+    <t>Andreas Weisheit b</t>
+  </si>
+  <si>
+    <t>Philipp Kürnsteiner a</t>
+  </si>
+  <si>
+    <t>Nahum Travitzky</t>
+  </si>
+  <si>
+    <t>Christian Brecher</t>
+  </si>
+  <si>
+    <t>K.G. Prashanth a b</t>
+  </si>
+  <si>
+    <t>Jürgen Eckert 1</t>
+  </si>
+  <si>
+    <t>S. Scudino</t>
+  </si>
+  <si>
+    <t>Nahum Travitzky b 1</t>
+  </si>
+  <si>
+    <t>S. Gaisford b c</t>
+  </si>
+  <si>
+    <t>K.G. Prashanth c</t>
+  </si>
+  <si>
+    <t>Nahum Travitzky c</t>
+  </si>
+  <si>
+    <t>J. Eckert c d</t>
+  </si>
+  <si>
+    <t>A. Erman Tekkaya a</t>
+  </si>
+  <si>
+    <t>Aiguo Wu b</t>
+  </si>
+  <si>
+    <t>Current affiliation: Erich Schmid Institute of Materials Science, Leoben, Austria
+Scopus ID: 55613237718</t>
+  </si>
+  <si>
+    <t>Current affiliation: National University of Singapore, Singapore City, Singapore
+Scopus ID: 7402687946</t>
+  </si>
+  <si>
+    <t>Current affiliation: Singapore University of Technology and Design, Singapore City, Singapore
+Scopus ID: 57203930410</t>
+  </si>
+  <si>
+    <t>Current affiliation: Nanjing University of Aeronautics and Astronautics, Nanjing, China
+Scopus ID: 8980062600</t>
+  </si>
+  <si>
+    <t>Current affiliation: Technische Universität München, Munich, Germany
+Scopus ID: 7403255397</t>
+  </si>
+  <si>
+    <t>Current affiliation: Gottfried Wilhelm Leibniz Universität Hannover, Hannover, Germany
+Scopus ID: 56385047000</t>
+  </si>
+  <si>
+    <t>Current affiliation: Technische Universität Clausthal, Clausthal-Zellerfeld, Germany
+Scopus ID: 6701375557</t>
+  </si>
+  <si>
+    <t>Current affiliation: Högskolan i Halmstad, Halmstad, Sweden
+Scopus ID: 35791821100</t>
+  </si>
+  <si>
+    <t>Current affiliation: Leibniz-Institut für Festkörper- und Werkstoffforschung Dresden, Dresden, Germany
+Scopus ID: 10739142300</t>
+  </si>
+  <si>
+    <t>Current affiliation: Marquette University School of Dentistry, Milwaukee, United States
+Scopus ID: 23003969700</t>
+  </si>
+  <si>
+    <t>Current affiliation: Friedrich-Alexander-Universität Erlangen-Nürnberg, Erlangen, Germany
+Scopus ID: 35617634700</t>
+  </si>
+  <si>
+    <t>Current affiliation: Fraunhofer Institute for Laser Technology ILT, Aachen, Germany
+Scopus ID: 6603958803</t>
+  </si>
+  <si>
+    <t>Current affiliation: Tallinna Tehnikaülikool, Tallinn, Estonia
+Scopus ID: 25652170500</t>
+  </si>
+  <si>
+    <t>Current affiliation: Budapesti Corvinus Egyetem, Budapest, Hungary
+Scopus ID: 55931118600</t>
+  </si>
+  <si>
+    <t>Current affiliation: Leibniz Institute for Materials Engineering IWT, Bremen, Germany
+Scopus ID: 56150552900</t>
+  </si>
+  <si>
+    <t>Current affiliation: Technische Universität Dortmund, Dortmund, Germany
+Scopus ID: 7003877035</t>
+  </si>
+  <si>
+    <t>Current affiliation: Shiraz University of Technology, Shiraz, Iran
+Scopus ID: 26434435600</t>
+  </si>
+  <si>
+    <t>Current affiliation: Technische Universität München, Munich, Germany
+Scopus ID: 6603480302</t>
+  </si>
+  <si>
+    <t>Current affiliation: Ruhr-Universitat Bochum, Bochum, Germany
+Scopus ID: 55383165500</t>
+  </si>
+  <si>
+    <t>Current affiliation: Gottfried Wilhelm Leibniz Universität Hannover, Hannover, Germany
+Scopus ID: 56262617800</t>
+  </si>
+  <si>
+    <t>Current affiliation: Rheinisch-Westfälische Technische Hochschule Aachen, Aachen, Germany
+Scopus ID: 55947597300</t>
+  </si>
+  <si>
+    <t>Current affiliation: Karlsruher Institut für Technologie, Karlsruhe, Germany
+Scopus ID: 23100137400</t>
+  </si>
+  <si>
+    <t>Current affiliation: Politecnico di Torino, Turin, Italy
+Scopus ID: 6602669816</t>
+  </si>
+  <si>
+    <t>Current affiliation: Ruhr-Universitat Bochum, Bochum, Germany
+Scopus ID: 7003780738</t>
+  </si>
+  <si>
+    <t>Current affiliation: Chalmers University of Technology, Gothenburg, Sweden
+Scopus ID: 23476951300</t>
+  </si>
+  <si>
+    <t>Current affiliation: Institute of Plasma Physics, Academy of Sciences of the Czech Republic, Prague, Czech Republic
+Scopus ID: 6701754946</t>
+  </si>
+  <si>
+    <t>Current affiliation: Technische Universität Bergakademie Freiberg, Freiberg, Germany
+Scopus ID: 7005296497</t>
+  </si>
+  <si>
+    <t>Current affiliation: Lawrence Livermore National Laboratory, Livermore, United States
+Scopus ID: 35552345600</t>
+  </si>
+  <si>
+    <t>Current affiliation: Johannes Kepler University Linz, Linz, Austria
+Scopus ID: 55540069000</t>
+  </si>
+  <si>
+    <t>Current affiliation: Friedrich-Alexander-Universität Erlangen-Nürnberg, Erlangen, Germany
+Scopus ID: 7004717249</t>
+  </si>
+  <si>
+    <t>Current affiliation: UCL School of Pharmacy, London, United Kingdom
+Scopus ID: 6602683597</t>
+  </si>
+  <si>
+    <t>Current affiliation: Chinese Academy of Sciences, Beijing, China
+Scopus ID: 36878645600</t>
   </si>
 </sst>
 </file>
@@ -492,7 +2255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,173 +2347,5173 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" t="s">
-        <v>35</v>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>511</v>
+      </c>
+      <c r="C35" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>512</v>
+      </c>
+      <c r="C38" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>513</v>
+      </c>
+      <c r="C51" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>514</v>
+      </c>
+      <c r="C54" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>515</v>
+      </c>
+      <c r="C58" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>516</v>
+      </c>
+      <c r="C69" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>517</v>
+      </c>
+      <c r="C71" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>518</v>
+      </c>
+      <c r="C73" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>519</v>
+      </c>
+      <c r="C75" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>520</v>
+      </c>
+      <c r="C76" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>521</v>
+      </c>
+      <c r="C77" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>522</v>
+      </c>
+      <c r="C78" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>523</v>
+      </c>
+      <c r="C88" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>524</v>
+      </c>
+      <c r="C90" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>525</v>
+      </c>
+      <c r="C95" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>515</v>
+      </c>
+      <c r="C101" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>526</v>
+      </c>
+      <c r="C112" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>526</v>
+      </c>
+      <c r="C113" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>526</v>
+      </c>
+      <c r="C114" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>527</v>
+      </c>
+      <c r="C115" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>526</v>
+      </c>
+      <c r="C116" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>526</v>
+      </c>
+      <c r="C117" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>528</v>
+      </c>
+      <c r="C118" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>526</v>
+      </c>
+      <c r="C119" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>526</v>
+      </c>
+      <c r="C120" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>526</v>
+      </c>
+      <c r="C121" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>526</v>
+      </c>
+      <c r="C122" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>526</v>
+      </c>
+      <c r="C123" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>526</v>
+      </c>
+      <c r="C124" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>526</v>
+      </c>
+      <c r="C125" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>526</v>
+      </c>
+      <c r="C126" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>529</v>
+      </c>
+      <c r="C127" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>526</v>
+      </c>
+      <c r="C128" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>526</v>
+      </c>
+      <c r="C129" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>530</v>
+      </c>
+      <c r="C130" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>526</v>
+      </c>
+      <c r="C131" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>526</v>
+      </c>
+      <c r="C132" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>526</v>
+      </c>
+      <c r="C133" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>531</v>
+      </c>
+      <c r="C134" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>526</v>
+      </c>
+      <c r="C135" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>526</v>
+      </c>
+      <c r="C136" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>530</v>
+      </c>
+      <c r="C137" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B138" t="s">
+        <v>526</v>
+      </c>
+      <c r="C138" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B139" t="s">
+        <v>526</v>
+      </c>
+      <c r="C139" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B140" t="s">
+        <v>526</v>
+      </c>
+      <c r="C140" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141" t="s">
+        <v>532</v>
+      </c>
+      <c r="C141" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" t="s">
+        <v>526</v>
+      </c>
+      <c r="C142" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B143" t="s">
+        <v>526</v>
+      </c>
+      <c r="C143" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144" t="s">
+        <v>526</v>
+      </c>
+      <c r="C144" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B145" t="s">
+        <v>526</v>
+      </c>
+      <c r="C145" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B146" t="s">
+        <v>533</v>
+      </c>
+      <c r="C146" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147" t="s">
+        <v>526</v>
+      </c>
+      <c r="C147" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148" t="s">
+        <v>534</v>
+      </c>
+      <c r="C148" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149" t="s">
+        <v>526</v>
+      </c>
+      <c r="C149" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B150" t="s">
+        <v>526</v>
+      </c>
+      <c r="C150" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B151" t="s">
+        <v>535</v>
+      </c>
+      <c r="C151" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B152" t="s">
+        <v>526</v>
+      </c>
+      <c r="C152" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B153" t="s">
+        <v>526</v>
+      </c>
+      <c r="C153" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B154" t="s">
+        <v>526</v>
+      </c>
+      <c r="C154" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B155" t="s">
+        <v>526</v>
+      </c>
+      <c r="C155" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B156" t="s">
+        <v>526</v>
+      </c>
+      <c r="C156" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B157" t="s">
+        <v>526</v>
+      </c>
+      <c r="C157" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B158" t="s">
+        <v>526</v>
+      </c>
+      <c r="C158" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B159" t="s">
+        <v>526</v>
+      </c>
+      <c r="C159" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B160" t="s">
+        <v>526</v>
+      </c>
+      <c r="C160" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B161" t="s">
+        <v>526</v>
+      </c>
+      <c r="C161" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B162" t="s">
+        <v>526</v>
+      </c>
+      <c r="C162" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B163" t="s">
+        <v>526</v>
+      </c>
+      <c r="C163" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B164" t="s">
+        <v>526</v>
+      </c>
+      <c r="C164" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B165" t="s">
+        <v>526</v>
+      </c>
+      <c r="C165" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B166" t="s">
+        <v>526</v>
+      </c>
+      <c r="C166" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B167" t="s">
+        <v>526</v>
+      </c>
+      <c r="C167" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B168" t="s">
+        <v>526</v>
+      </c>
+      <c r="C168" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B169" t="s">
+        <v>526</v>
+      </c>
+      <c r="C169" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B170" t="s">
+        <v>526</v>
+      </c>
+      <c r="C170" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B171" t="s">
+        <v>526</v>
+      </c>
+      <c r="C171" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B172" t="s">
+        <v>536</v>
+      </c>
+      <c r="C172" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B173" t="s">
+        <v>526</v>
+      </c>
+      <c r="C173" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B174" t="s">
+        <v>526</v>
+      </c>
+      <c r="C174" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B175" t="s">
+        <v>526</v>
+      </c>
+      <c r="C175" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B176" t="s">
+        <v>526</v>
+      </c>
+      <c r="C176" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B177" t="s">
+        <v>537</v>
+      </c>
+      <c r="C177" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B178" t="s">
+        <v>526</v>
+      </c>
+      <c r="C178" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B179" t="s">
+        <v>538</v>
+      </c>
+      <c r="C179" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B180" t="s">
+        <v>526</v>
+      </c>
+      <c r="C180" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B181" t="s">
+        <v>526</v>
+      </c>
+      <c r="C181" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B182" t="s">
+        <v>526</v>
+      </c>
+      <c r="C182" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B183" t="s">
+        <v>526</v>
+      </c>
+      <c r="C183" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B184" t="s">
+        <v>526</v>
+      </c>
+      <c r="C184" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B185" t="s">
+        <v>526</v>
+      </c>
+      <c r="C185" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B186" t="s">
+        <v>526</v>
+      </c>
+      <c r="C186" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B187" t="s">
+        <v>526</v>
+      </c>
+      <c r="C187" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B188" t="s">
+        <v>526</v>
+      </c>
+      <c r="C188" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B189" t="s">
+        <v>526</v>
+      </c>
+      <c r="C189" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B190" t="s">
+        <v>526</v>
+      </c>
+      <c r="C190" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B191" t="s">
+        <v>526</v>
+      </c>
+      <c r="C191" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B192" t="s">
+        <v>526</v>
+      </c>
+      <c r="C192" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B193" t="s">
+        <v>526</v>
+      </c>
+      <c r="C193" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B194" t="s">
+        <v>526</v>
+      </c>
+      <c r="C194" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B195" t="s">
+        <v>530</v>
+      </c>
+      <c r="C195" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B196" t="s">
+        <v>526</v>
+      </c>
+      <c r="C196" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B197" t="s">
+        <v>526</v>
+      </c>
+      <c r="C197" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B198" t="s">
+        <v>526</v>
+      </c>
+      <c r="C198" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B199" t="s">
+        <v>526</v>
+      </c>
+      <c r="C199" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B200" t="s">
+        <v>526</v>
+      </c>
+      <c r="C200" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B201" t="s">
+        <v>526</v>
+      </c>
+      <c r="C201" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B202" t="s">
+        <v>526</v>
+      </c>
+      <c r="C202" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B203" t="s">
+        <v>526</v>
+      </c>
+      <c r="C203" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B204" t="s">
+        <v>539</v>
+      </c>
+      <c r="C204" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B205" t="s">
+        <v>526</v>
+      </c>
+      <c r="C205" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B206" t="s">
+        <v>526</v>
+      </c>
+      <c r="C206" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B207" t="s">
+        <v>526</v>
+      </c>
+      <c r="C207" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B208" t="s">
+        <v>526</v>
+      </c>
+      <c r="C208" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B209" t="s">
+        <v>526</v>
+      </c>
+      <c r="C209" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B210" t="s">
+        <v>526</v>
+      </c>
+      <c r="C210" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B211" t="s">
+        <v>526</v>
+      </c>
+      <c r="C211" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B212" t="s">
+        <v>526</v>
+      </c>
+      <c r="C212" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B213" t="s">
+        <v>526</v>
+      </c>
+      <c r="C213" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B214" t="s">
+        <v>526</v>
+      </c>
+      <c r="C214" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B215" t="s">
+        <v>526</v>
+      </c>
+      <c r="C215" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B216" t="s">
+        <v>540</v>
+      </c>
+      <c r="C216" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B217" t="s">
+        <v>526</v>
+      </c>
+      <c r="C217" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B218" t="s">
+        <v>526</v>
+      </c>
+      <c r="C218" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B219" t="s">
+        <v>526</v>
+      </c>
+      <c r="C219" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B220" t="s">
+        <v>541</v>
+      </c>
+      <c r="C220" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B221" t="s">
+        <v>526</v>
+      </c>
+      <c r="C221" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B222" t="s">
+        <v>542</v>
+      </c>
+      <c r="C222" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B223" t="s">
+        <v>526</v>
+      </c>
+      <c r="C223" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B224" t="s">
+        <v>526</v>
+      </c>
+      <c r="C224" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B225" t="s">
+        <v>526</v>
+      </c>
+      <c r="C225" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B226" t="s">
+        <v>526</v>
+      </c>
+      <c r="C226" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B227" t="s">
+        <v>526</v>
+      </c>
+      <c r="C227" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B228" t="s">
+        <v>543</v>
+      </c>
+      <c r="C228" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B229" t="s">
+        <v>526</v>
+      </c>
+      <c r="C229" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B230" t="s">
+        <v>526</v>
+      </c>
+      <c r="C230" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B231" t="s">
+        <v>526</v>
+      </c>
+      <c r="C231" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B232" t="s">
+        <v>526</v>
+      </c>
+      <c r="C232" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B233" t="s">
+        <v>526</v>
+      </c>
+      <c r="C233" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B234" t="s">
+        <v>514</v>
+      </c>
+      <c r="C234" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B235" t="s">
+        <v>526</v>
+      </c>
+      <c r="C235" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B236" t="s">
+        <v>526</v>
+      </c>
+      <c r="C236" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B237" t="s">
+        <v>526</v>
+      </c>
+      <c r="C237" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B238" t="s">
+        <v>526</v>
+      </c>
+      <c r="C238" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B239" t="s">
+        <v>526</v>
+      </c>
+      <c r="C239" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B240" t="s">
+        <v>526</v>
+      </c>
+      <c r="C240" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B241" t="s">
+        <v>526</v>
+      </c>
+      <c r="C241" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B242" t="s">
+        <v>526</v>
+      </c>
+      <c r="C242" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B243" t="s">
+        <v>526</v>
+      </c>
+      <c r="C243" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B244" t="s">
+        <v>526</v>
+      </c>
+      <c r="C244" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B245" t="s">
+        <v>526</v>
+      </c>
+      <c r="C245" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B246" t="s">
+        <v>526</v>
+      </c>
+      <c r="C246" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B247" t="s">
+        <v>526</v>
+      </c>
+      <c r="C247" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B248" t="s">
+        <v>544</v>
+      </c>
+      <c r="C248" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B249" t="s">
+        <v>526</v>
+      </c>
+      <c r="C249" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B250" t="s">
+        <v>526</v>
+      </c>
+      <c r="C250" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B251" t="s">
+        <v>526</v>
+      </c>
+      <c r="C251" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B252" t="s">
+        <v>545</v>
+      </c>
+      <c r="C252" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B253" t="s">
+        <v>526</v>
+      </c>
+      <c r="C253" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B254" t="s">
+        <v>526</v>
+      </c>
+      <c r="C254" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B255" t="s">
+        <v>546</v>
+      </c>
+      <c r="C255" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B256" t="s">
+        <v>526</v>
+      </c>
+      <c r="C256" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B257" t="s">
+        <v>526</v>
+      </c>
+      <c r="C257" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B258" t="s">
+        <v>526</v>
+      </c>
+      <c r="C258" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B259" t="s">
+        <v>526</v>
+      </c>
+      <c r="C259" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B260" t="s">
+        <v>526</v>
+      </c>
+      <c r="C260" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B261" t="s">
+        <v>526</v>
+      </c>
+      <c r="C261" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B262" t="s">
+        <v>526</v>
+      </c>
+      <c r="C262" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B263" t="s">
+        <v>526</v>
+      </c>
+      <c r="C263" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B264" t="s">
+        <v>526</v>
+      </c>
+      <c r="C264" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B265" t="s">
+        <v>526</v>
+      </c>
+      <c r="C265" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B266" t="s">
+        <v>547</v>
+      </c>
+      <c r="C266" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B267" t="s">
+        <v>526</v>
+      </c>
+      <c r="C267" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B268" t="s">
+        <v>526</v>
+      </c>
+      <c r="C268" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B269" t="s">
+        <v>526</v>
+      </c>
+      <c r="C269" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B270" t="s">
+        <v>526</v>
+      </c>
+      <c r="C270" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B271" t="s">
+        <v>526</v>
+      </c>
+      <c r="C271" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B272" t="s">
+        <v>526</v>
+      </c>
+      <c r="C272" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B273" t="s">
+        <v>526</v>
+      </c>
+      <c r="C273" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B274" t="s">
+        <v>526</v>
+      </c>
+      <c r="C274" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B275" t="s">
+        <v>526</v>
+      </c>
+      <c r="C275" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B276" t="s">
+        <v>526</v>
+      </c>
+      <c r="C276" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B277" t="s">
+        <v>526</v>
+      </c>
+      <c r="C277" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B278" t="s">
+        <v>526</v>
+      </c>
+      <c r="C278" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B279" t="s">
+        <v>548</v>
+      </c>
+      <c r="C279" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B280" t="s">
+        <v>526</v>
+      </c>
+      <c r="C280" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B281" t="s">
+        <v>526</v>
+      </c>
+      <c r="C281" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B282" t="s">
+        <v>526</v>
+      </c>
+      <c r="C282" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B283" t="s">
+        <v>526</v>
+      </c>
+      <c r="C283" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B284" t="s">
+        <v>526</v>
+      </c>
+      <c r="C284" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B285" t="s">
+        <v>526</v>
+      </c>
+      <c r="C285" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B286" t="s">
+        <v>526</v>
+      </c>
+      <c r="C286" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B287" t="s">
+        <v>526</v>
+      </c>
+      <c r="C287" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B288" t="s">
+        <v>526</v>
+      </c>
+      <c r="C288" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B289" t="s">
+        <v>549</v>
+      </c>
+      <c r="C289" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B290" t="s">
+        <v>526</v>
+      </c>
+      <c r="C290" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B291" t="s">
+        <v>526</v>
+      </c>
+      <c r="C291" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B292" t="s">
+        <v>526</v>
+      </c>
+      <c r="C292" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B293" t="s">
+        <v>526</v>
+      </c>
+      <c r="C293" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B294" t="s">
+        <v>526</v>
+      </c>
+      <c r="C294" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B295" t="s">
+        <v>526</v>
+      </c>
+      <c r="C295" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B296" t="s">
+        <v>526</v>
+      </c>
+      <c r="C296" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B297" t="s">
+        <v>526</v>
+      </c>
+      <c r="C297" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B298" t="s">
+        <v>526</v>
+      </c>
+      <c r="C298" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B299" t="s">
+        <v>526</v>
+      </c>
+      <c r="C299" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B300" t="s">
+        <v>526</v>
+      </c>
+      <c r="C300" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B301" t="s">
+        <v>550</v>
+      </c>
+      <c r="C301" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B302" t="s">
+        <v>526</v>
+      </c>
+      <c r="C302" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B303" t="s">
+        <v>526</v>
+      </c>
+      <c r="C303" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B304" t="s">
+        <v>526</v>
+      </c>
+      <c r="C304" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B305" t="s">
+        <v>526</v>
+      </c>
+      <c r="C305" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B306" t="s">
+        <v>526</v>
+      </c>
+      <c r="C306" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B307" t="s">
+        <v>551</v>
+      </c>
+      <c r="C307" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B308" t="s">
+        <v>526</v>
+      </c>
+      <c r="C308" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B309" t="s">
+        <v>552</v>
+      </c>
+      <c r="C309" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B310" t="s">
+        <v>526</v>
+      </c>
+      <c r="C310" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B311" t="s">
+        <v>526</v>
+      </c>
+      <c r="C311" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B312" t="s">
+        <v>526</v>
+      </c>
+      <c r="C312" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B313" t="s">
+        <v>526</v>
+      </c>
+      <c r="C313" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B314" t="s">
+        <v>526</v>
+      </c>
+      <c r="C314" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B315" t="s">
+        <v>526</v>
+      </c>
+      <c r="C315" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B316" t="s">
+        <v>526</v>
+      </c>
+      <c r="C316" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B317" t="s">
+        <v>526</v>
+      </c>
+      <c r="C317" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B318" t="s">
+        <v>526</v>
+      </c>
+      <c r="C318" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B319" t="s">
+        <v>540</v>
+      </c>
+      <c r="C319" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B320" t="s">
+        <v>526</v>
+      </c>
+      <c r="C320" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B321" t="s">
+        <v>526</v>
+      </c>
+      <c r="C321" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B322" t="s">
+        <v>526</v>
+      </c>
+      <c r="C322" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B323" t="s">
+        <v>526</v>
+      </c>
+      <c r="C323" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B324" t="s">
+        <v>526</v>
+      </c>
+      <c r="C324" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B325" t="s">
+        <v>526</v>
+      </c>
+      <c r="C325" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B326" t="s">
+        <v>553</v>
+      </c>
+      <c r="C326" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B327" t="s">
+        <v>526</v>
+      </c>
+      <c r="C327" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B328" t="s">
+        <v>526</v>
+      </c>
+      <c r="C328" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B329" t="s">
+        <v>526</v>
+      </c>
+      <c r="C329" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B330" t="s">
+        <v>526</v>
+      </c>
+      <c r="C330" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B331" t="s">
+        <v>526</v>
+      </c>
+      <c r="C331" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B332" t="s">
+        <v>526</v>
+      </c>
+      <c r="C332" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B333" t="s">
+        <v>526</v>
+      </c>
+      <c r="C333" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B334" t="s">
+        <v>554</v>
+      </c>
+      <c r="C334" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B335" t="s">
+        <v>526</v>
+      </c>
+      <c r="C335" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B336" t="s">
+        <v>526</v>
+      </c>
+      <c r="C336" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B337" t="s">
+        <v>526</v>
+      </c>
+      <c r="C337" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B338" t="s">
+        <v>526</v>
+      </c>
+      <c r="C338" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B339" t="s">
+        <v>526</v>
+      </c>
+      <c r="C339" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B340" t="s">
+        <v>526</v>
+      </c>
+      <c r="C340" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B341" t="s">
+        <v>526</v>
+      </c>
+      <c r="C341" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B342" t="s">
+        <v>526</v>
+      </c>
+      <c r="C342" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B343" t="s">
+        <v>526</v>
+      </c>
+      <c r="C343" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B344" t="s">
+        <v>526</v>
+      </c>
+      <c r="C344" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B345" t="s">
+        <v>526</v>
+      </c>
+      <c r="C345" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B346" t="s">
+        <v>526</v>
+      </c>
+      <c r="C346" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B347" t="s">
+        <v>515</v>
+      </c>
+      <c r="C347" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B348" t="s">
+        <v>526</v>
+      </c>
+      <c r="C348" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B349" t="s">
+        <v>526</v>
+      </c>
+      <c r="C349" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B350" t="s">
+        <v>526</v>
+      </c>
+      <c r="C350" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B351" t="s">
+        <v>526</v>
+      </c>
+      <c r="C351" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B352" t="s">
+        <v>526</v>
+      </c>
+      <c r="C352" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B353" t="s">
+        <v>526</v>
+      </c>
+      <c r="C353" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B354" t="s">
+        <v>526</v>
+      </c>
+      <c r="C354" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B355" t="s">
+        <v>526</v>
+      </c>
+      <c r="C355" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B356" t="s">
+        <v>526</v>
+      </c>
+      <c r="C356" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B357" t="s">
+        <v>526</v>
+      </c>
+      <c r="C357" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B358" t="s">
+        <v>526</v>
+      </c>
+      <c r="C358" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B359" t="s">
+        <v>555</v>
+      </c>
+      <c r="C359" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B360" t="s">
+        <v>526</v>
+      </c>
+      <c r="C360" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B361" t="s">
+        <v>526</v>
+      </c>
+      <c r="C361" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B362" t="s">
+        <v>526</v>
+      </c>
+      <c r="C362" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B363" t="s">
+        <v>526</v>
+      </c>
+      <c r="C363" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B364" t="s">
+        <v>556</v>
+      </c>
+      <c r="C364" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B365" t="s">
+        <v>526</v>
+      </c>
+      <c r="C365" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B366" t="s">
+        <v>526</v>
+      </c>
+      <c r="C366" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B367" t="s">
+        <v>526</v>
+      </c>
+      <c r="C367" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B368" t="s">
+        <v>526</v>
+      </c>
+      <c r="C368" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B369" t="s">
+        <v>526</v>
+      </c>
+      <c r="C369" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B370" t="s">
+        <v>526</v>
+      </c>
+      <c r="C370" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B371" t="s">
+        <v>526</v>
+      </c>
+      <c r="C371" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B372" t="s">
+        <v>526</v>
+      </c>
+      <c r="C372" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B373" t="s">
+        <v>557</v>
+      </c>
+      <c r="C373" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B374" t="s">
+        <v>558</v>
+      </c>
+      <c r="C374" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B375" t="s">
+        <v>559</v>
+      </c>
+      <c r="C375" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B376" t="s">
+        <v>526</v>
+      </c>
+      <c r="C376" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B377" t="s">
+        <v>526</v>
+      </c>
+      <c r="C377" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B378" t="s">
+        <v>526</v>
+      </c>
+      <c r="C378" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B379" t="s">
+        <v>526</v>
+      </c>
+      <c r="C379" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B380" t="s">
+        <v>526</v>
+      </c>
+      <c r="C380" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B381" t="s">
+        <v>526</v>
+      </c>
+      <c r="C381" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B382" t="s">
+        <v>526</v>
+      </c>
+      <c r="C382" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B383" t="s">
+        <v>526</v>
+      </c>
+      <c r="C383" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B384" t="s">
+        <v>526</v>
+      </c>
+      <c r="C384" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B385" t="s">
+        <v>526</v>
+      </c>
+      <c r="C385" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B386" t="s">
+        <v>526</v>
+      </c>
+      <c r="C386" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B387" t="s">
+        <v>526</v>
+      </c>
+      <c r="C387" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B388" t="s">
+        <v>526</v>
+      </c>
+      <c r="C388" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B389" t="s">
+        <v>526</v>
+      </c>
+      <c r="C389" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B390" t="s">
+        <v>526</v>
+      </c>
+      <c r="C390" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B391" t="s">
+        <v>526</v>
+      </c>
+      <c r="C391" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B392" t="s">
+        <v>560</v>
+      </c>
+      <c r="C392" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B393" t="s">
+        <v>526</v>
+      </c>
+      <c r="C393" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B394" t="s">
+        <v>526</v>
+      </c>
+      <c r="C394" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B395" t="s">
+        <v>561</v>
+      </c>
+      <c r="C395" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B396" t="s">
+        <v>526</v>
+      </c>
+      <c r="C396" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B397" t="s">
+        <v>526</v>
+      </c>
+      <c r="C397" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B398" t="s">
+        <v>562</v>
+      </c>
+      <c r="C398" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B399" t="s">
+        <v>526</v>
+      </c>
+      <c r="C399" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B400" t="s">
+        <v>526</v>
+      </c>
+      <c r="C400" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B401" t="s">
+        <v>526</v>
+      </c>
+      <c r="C401" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B402" t="s">
+        <v>563</v>
+      </c>
+      <c r="C402" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B403" t="s">
+        <v>526</v>
+      </c>
+      <c r="C403" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B404" t="s">
+        <v>526</v>
+      </c>
+      <c r="C404" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B405" t="s">
+        <v>526</v>
+      </c>
+      <c r="C405" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B406" t="s">
+        <v>526</v>
+      </c>
+      <c r="C406" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B407" t="s">
+        <v>526</v>
+      </c>
+      <c r="C407" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B408" t="s">
+        <v>526</v>
+      </c>
+      <c r="C408" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B409" t="s">
+        <v>526</v>
+      </c>
+      <c r="C409" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B410" t="s">
+        <v>526</v>
+      </c>
+      <c r="C410" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B411" t="s">
+        <v>526</v>
+      </c>
+      <c r="C411" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B412" t="s">
+        <v>526</v>
+      </c>
+      <c r="C412" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B413" t="s">
+        <v>526</v>
+      </c>
+      <c r="C413" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B414" t="s">
+        <v>526</v>
+      </c>
+      <c r="C414" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B415" t="s">
+        <v>526</v>
+      </c>
+      <c r="C415" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B416" t="s">
+        <v>526</v>
+      </c>
+      <c r="C416" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B417" t="s">
+        <v>526</v>
+      </c>
+      <c r="C417" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B418" t="s">
+        <v>526</v>
+      </c>
+      <c r="C418" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B419" t="s">
+        <v>526</v>
+      </c>
+      <c r="C419" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B420" t="s">
+        <v>526</v>
+      </c>
+      <c r="C420" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B421" t="s">
+        <v>526</v>
+      </c>
+      <c r="C421" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B422" t="s">
+        <v>526</v>
+      </c>
+      <c r="C422" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B423" t="s">
+        <v>526</v>
+      </c>
+      <c r="C423" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B424" t="s">
+        <v>526</v>
+      </c>
+      <c r="C424" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B425" t="s">
+        <v>526</v>
+      </c>
+      <c r="C425" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B426" t="s">
+        <v>526</v>
+      </c>
+      <c r="C426" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B427" t="s">
+        <v>564</v>
+      </c>
+      <c r="C427" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B428" t="s">
+        <v>526</v>
+      </c>
+      <c r="C428" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B429" t="s">
+        <v>526</v>
+      </c>
+      <c r="C429" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B430" t="s">
+        <v>526</v>
+      </c>
+      <c r="C430" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B431" t="s">
+        <v>565</v>
+      </c>
+      <c r="C431" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B432" t="s">
+        <v>566</v>
+      </c>
+      <c r="C432" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B433" t="s">
+        <v>526</v>
+      </c>
+      <c r="C433" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B434" t="s">
+        <v>567</v>
+      </c>
+      <c r="C434" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B435" t="s">
+        <v>526</v>
+      </c>
+      <c r="C435" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B436" t="s">
+        <v>526</v>
+      </c>
+      <c r="C436" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B437" t="s">
+        <v>526</v>
+      </c>
+      <c r="C437" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B438" t="s">
+        <v>526</v>
+      </c>
+      <c r="C438" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B439" t="s">
+        <v>526</v>
+      </c>
+      <c r="C439" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B440" t="s">
+        <v>526</v>
+      </c>
+      <c r="C440" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B441" t="s">
+        <v>526</v>
+      </c>
+      <c r="C441" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B442" t="s">
+        <v>568</v>
+      </c>
+      <c r="C442" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B443" t="s">
+        <v>526</v>
+      </c>
+      <c r="C443" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B444" t="s">
+        <v>526</v>
+      </c>
+      <c r="C444" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B445" t="s">
+        <v>526</v>
+      </c>
+      <c r="C445" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B446" t="s">
+        <v>526</v>
+      </c>
+      <c r="C446" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B447" t="s">
+        <v>515</v>
+      </c>
+      <c r="C447" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B448" t="s">
+        <v>526</v>
+      </c>
+      <c r="C448" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B449" t="s">
+        <v>526</v>
+      </c>
+      <c r="C449" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B450" t="s">
+        <v>526</v>
+      </c>
+      <c r="C450" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B451" t="s">
+        <v>526</v>
+      </c>
+      <c r="C451" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B452" t="s">
+        <v>526</v>
+      </c>
+      <c r="C452" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B453" t="s">
+        <v>569</v>
+      </c>
+      <c r="C453" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B454" t="s">
+        <v>526</v>
+      </c>
+      <c r="C454" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B455" t="s">
+        <v>526</v>
+      </c>
+      <c r="C455" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B456" t="s">
+        <v>526</v>
+      </c>
+      <c r="C456" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B457" t="s">
+        <v>526</v>
+      </c>
+      <c r="C457" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B458" t="s">
+        <v>570</v>
+      </c>
+      <c r="C458" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B459" t="s">
+        <v>526</v>
+      </c>
+      <c r="C459" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B460" t="s">
+        <v>526</v>
+      </c>
+      <c r="C460" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B461" t="s">
+        <v>526</v>
+      </c>
+      <c r="C461" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B462" t="s">
+        <v>526</v>
+      </c>
+      <c r="C462" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B463" t="s">
+        <v>526</v>
+      </c>
+      <c r="C463" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B464" t="s">
+        <v>526</v>
+      </c>
+      <c r="C464" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B465" t="s">
+        <v>526</v>
+      </c>
+      <c r="C465" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B466" t="s">
+        <v>526</v>
+      </c>
+      <c r="C466" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B467" t="s">
+        <v>571</v>
+      </c>
+      <c r="C467" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B468" t="s">
+        <v>526</v>
+      </c>
+      <c r="C468" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B469" t="s">
+        <v>526</v>
+      </c>
+      <c r="C469" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B470" t="s">
+        <v>532</v>
+      </c>
+      <c r="C470" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B471" t="s">
+        <v>572</v>
+      </c>
+      <c r="C471" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B472" t="s">
+        <v>558</v>
+      </c>
+      <c r="C472" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B473" t="s">
+        <v>526</v>
+      </c>
+      <c r="C473" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B474" t="s">
+        <v>526</v>
+      </c>
+      <c r="C474" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B475" t="s">
+        <v>526</v>
+      </c>
+      <c r="C475" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B476" t="s">
+        <v>526</v>
+      </c>
+      <c r="C476" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B477" t="s">
+        <v>573</v>
+      </c>
+      <c r="C477" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B478" t="s">
+        <v>526</v>
+      </c>
+      <c r="C478" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B479" t="s">
+        <v>526</v>
+      </c>
+      <c r="C479" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B480" t="s">
+        <v>526</v>
+      </c>
+      <c r="C480" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B481" t="s">
+        <v>526</v>
+      </c>
+      <c r="C481" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B482" t="s">
+        <v>526</v>
+      </c>
+      <c r="C482" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B483" t="s">
+        <v>530</v>
+      </c>
+      <c r="C483" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B484" t="s">
+        <v>526</v>
+      </c>
+      <c r="C484" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B485" t="s">
+        <v>526</v>
+      </c>
+      <c r="C485" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B486" t="s">
+        <v>574</v>
+      </c>
+      <c r="C486" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B487" t="s">
+        <v>575</v>
+      </c>
+      <c r="C487" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B488" t="s">
+        <v>526</v>
+      </c>
+      <c r="C488" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B489" t="s">
+        <v>526</v>
+      </c>
+      <c r="C489" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B490" t="s">
+        <v>526</v>
+      </c>
+      <c r="C490" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B491" t="s">
+        <v>526</v>
+      </c>
+      <c r="C491" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B492" t="s">
+        <v>526</v>
+      </c>
+      <c r="C492" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B493" t="s">
+        <v>526</v>
+      </c>
+      <c r="C493" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B494" t="s">
+        <v>526</v>
+      </c>
+      <c r="C494" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B495" t="s">
+        <v>526</v>
+      </c>
+      <c r="C495" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B496" t="s">
+        <v>526</v>
+      </c>
+      <c r="C496" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B497" t="s">
+        <v>526</v>
+      </c>
+      <c r="C497" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B498" t="s">
+        <v>526</v>
+      </c>
+      <c r="C498" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B499" t="s">
+        <v>526</v>
+      </c>
+      <c r="C499" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B500" t="s">
+        <v>526</v>
+      </c>
+      <c r="C500" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B501" t="s">
+        <v>526</v>
+      </c>
+      <c r="C501" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B502" t="s">
+        <v>526</v>
+      </c>
+      <c r="C502" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B503" t="s">
+        <v>526</v>
+      </c>
+      <c r="C503" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B504" t="s">
+        <v>526</v>
+      </c>
+      <c r="C504" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B505" t="s">
+        <v>576</v>
+      </c>
+      <c r="C505" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B506" t="s">
+        <v>526</v>
+      </c>
+      <c r="C506" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B507" t="s">
+        <v>526</v>
+      </c>
+      <c r="C507" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B508" t="s">
+        <v>526</v>
+      </c>
+      <c r="C508" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B509" t="s">
+        <v>526</v>
+      </c>
+      <c r="C509" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B510" t="s">
+        <v>526</v>
+      </c>
+      <c r="C510" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B511" t="s">
+        <v>540</v>
+      </c>
+      <c r="C511" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B512" t="s">
+        <v>526</v>
+      </c>
+      <c r="C512" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B513" t="s">
+        <v>526</v>
+      </c>
+      <c r="C513" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B514" t="s">
+        <v>577</v>
+      </c>
+      <c r="C514" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B515" t="s">
+        <v>526</v>
+      </c>
+      <c r="C515" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B516" t="s">
+        <v>526</v>
+      </c>
+      <c r="C516" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B517" t="s">
+        <v>526</v>
+      </c>
+      <c r="C517" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B518" t="s">
+        <v>526</v>
+      </c>
+      <c r="C518" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B519" t="s">
+        <v>526</v>
+      </c>
+      <c r="C519" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B520" t="s">
+        <v>526</v>
+      </c>
+      <c r="C520" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B521" t="s">
+        <v>526</v>
+      </c>
+      <c r="C521" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B522" t="s">
+        <v>526</v>
+      </c>
+      <c r="C522" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B523" t="s">
+        <v>526</v>
+      </c>
+      <c r="C523" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B524" t="s">
+        <v>578</v>
+      </c>
+      <c r="C524" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B525" t="s">
+        <v>526</v>
+      </c>
+      <c r="C525" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B526" t="s">
+        <v>526</v>
+      </c>
+      <c r="C526" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B527" t="s">
+        <v>579</v>
+      </c>
+      <c r="C527" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B528" t="s">
+        <v>526</v>
+      </c>
+      <c r="C528" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B529" t="s">
+        <v>580</v>
+      </c>
+      <c r="C529" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -787,6 +7550,502 @@
     <hyperlink ref="A31" r:id="rId30"/>
     <hyperlink ref="A32" r:id="rId31"/>
     <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="A45" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="A47" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="A49" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A59" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="A61" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="A63" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="A77" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="A79" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="A81" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="A83" r:id="rId82"/>
+    <hyperlink ref="A84" r:id="rId83"/>
+    <hyperlink ref="A85" r:id="rId84"/>
+    <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="A87" r:id="rId86"/>
+    <hyperlink ref="A88" r:id="rId87"/>
+    <hyperlink ref="A89" r:id="rId88"/>
+    <hyperlink ref="A90" r:id="rId89"/>
+    <hyperlink ref="A91" r:id="rId90"/>
+    <hyperlink ref="A92" r:id="rId91"/>
+    <hyperlink ref="A93" r:id="rId92"/>
+    <hyperlink ref="A94" r:id="rId93"/>
+    <hyperlink ref="A95" r:id="rId94"/>
+    <hyperlink ref="A96" r:id="rId95"/>
+    <hyperlink ref="A97" r:id="rId96"/>
+    <hyperlink ref="A98" r:id="rId97"/>
+    <hyperlink ref="A99" r:id="rId98"/>
+    <hyperlink ref="A100" r:id="rId99"/>
+    <hyperlink ref="A101" r:id="rId100"/>
+    <hyperlink ref="A102" r:id="rId101"/>
+    <hyperlink ref="A103" r:id="rId102"/>
+    <hyperlink ref="A104" r:id="rId103"/>
+    <hyperlink ref="A105" r:id="rId104"/>
+    <hyperlink ref="A106" r:id="rId105"/>
+    <hyperlink ref="A107" r:id="rId106"/>
+    <hyperlink ref="A108" r:id="rId107"/>
+    <hyperlink ref="A109" r:id="rId108"/>
+    <hyperlink ref="A110" r:id="rId109"/>
+    <hyperlink ref="A111" r:id="rId110"/>
+    <hyperlink ref="A112" r:id="rId111"/>
+    <hyperlink ref="A113" r:id="rId112"/>
+    <hyperlink ref="A114" r:id="rId113"/>
+    <hyperlink ref="A115" r:id="rId114"/>
+    <hyperlink ref="A116" r:id="rId115"/>
+    <hyperlink ref="A117" r:id="rId116"/>
+    <hyperlink ref="A118" r:id="rId117"/>
+    <hyperlink ref="A119" r:id="rId118"/>
+    <hyperlink ref="A120" r:id="rId119"/>
+    <hyperlink ref="A121" r:id="rId120"/>
+    <hyperlink ref="A122" r:id="rId121"/>
+    <hyperlink ref="A123" r:id="rId122"/>
+    <hyperlink ref="A124" r:id="rId123"/>
+    <hyperlink ref="A125" r:id="rId124"/>
+    <hyperlink ref="A126" r:id="rId125"/>
+    <hyperlink ref="A127" r:id="rId126"/>
+    <hyperlink ref="A128" r:id="rId127"/>
+    <hyperlink ref="A129" r:id="rId128"/>
+    <hyperlink ref="A130" r:id="rId129"/>
+    <hyperlink ref="A131" r:id="rId130"/>
+    <hyperlink ref="A132" r:id="rId131"/>
+    <hyperlink ref="A133" r:id="rId132"/>
+    <hyperlink ref="A134" r:id="rId133"/>
+    <hyperlink ref="A135" r:id="rId134"/>
+    <hyperlink ref="A136" r:id="rId135"/>
+    <hyperlink ref="A137" r:id="rId136"/>
+    <hyperlink ref="A138" r:id="rId137"/>
+    <hyperlink ref="A139" r:id="rId138"/>
+    <hyperlink ref="A140" r:id="rId139"/>
+    <hyperlink ref="A141" r:id="rId140"/>
+    <hyperlink ref="A142" r:id="rId141"/>
+    <hyperlink ref="A143" r:id="rId142"/>
+    <hyperlink ref="A144" r:id="rId143"/>
+    <hyperlink ref="A145" r:id="rId144"/>
+    <hyperlink ref="A146" r:id="rId145"/>
+    <hyperlink ref="A147" r:id="rId146"/>
+    <hyperlink ref="A148" r:id="rId147"/>
+    <hyperlink ref="A149" r:id="rId148"/>
+    <hyperlink ref="A150" r:id="rId149"/>
+    <hyperlink ref="A151" r:id="rId150"/>
+    <hyperlink ref="A152" r:id="rId151"/>
+    <hyperlink ref="A153" r:id="rId152"/>
+    <hyperlink ref="A154" r:id="rId153"/>
+    <hyperlink ref="A155" r:id="rId154"/>
+    <hyperlink ref="A156" r:id="rId155"/>
+    <hyperlink ref="A157" r:id="rId156"/>
+    <hyperlink ref="A158" r:id="rId157"/>
+    <hyperlink ref="A159" r:id="rId158"/>
+    <hyperlink ref="A160" r:id="rId159"/>
+    <hyperlink ref="A161" r:id="rId160"/>
+    <hyperlink ref="A162" r:id="rId161"/>
+    <hyperlink ref="A163" r:id="rId162"/>
+    <hyperlink ref="A164" r:id="rId163"/>
+    <hyperlink ref="A165" r:id="rId164"/>
+    <hyperlink ref="A166" r:id="rId165"/>
+    <hyperlink ref="A167" r:id="rId166"/>
+    <hyperlink ref="A168" r:id="rId167"/>
+    <hyperlink ref="A169" r:id="rId168"/>
+    <hyperlink ref="A170" r:id="rId169"/>
+    <hyperlink ref="A171" r:id="rId170"/>
+    <hyperlink ref="A172" r:id="rId171"/>
+    <hyperlink ref="A173" r:id="rId172"/>
+    <hyperlink ref="A174" r:id="rId173"/>
+    <hyperlink ref="A175" r:id="rId174"/>
+    <hyperlink ref="A176" r:id="rId175"/>
+    <hyperlink ref="A177" r:id="rId176"/>
+    <hyperlink ref="A178" r:id="rId177"/>
+    <hyperlink ref="A179" r:id="rId178"/>
+    <hyperlink ref="A180" r:id="rId179"/>
+    <hyperlink ref="A181" r:id="rId180"/>
+    <hyperlink ref="A182" r:id="rId181"/>
+    <hyperlink ref="A183" r:id="rId182"/>
+    <hyperlink ref="A184" r:id="rId183"/>
+    <hyperlink ref="A185" r:id="rId184"/>
+    <hyperlink ref="A186" r:id="rId185"/>
+    <hyperlink ref="A187" r:id="rId186"/>
+    <hyperlink ref="A188" r:id="rId187"/>
+    <hyperlink ref="A189" r:id="rId188"/>
+    <hyperlink ref="A190" r:id="rId189"/>
+    <hyperlink ref="A191" r:id="rId190"/>
+    <hyperlink ref="A192" r:id="rId191"/>
+    <hyperlink ref="A193" r:id="rId192"/>
+    <hyperlink ref="A194" r:id="rId193"/>
+    <hyperlink ref="A195" r:id="rId194"/>
+    <hyperlink ref="A196" r:id="rId195"/>
+    <hyperlink ref="A197" r:id="rId196"/>
+    <hyperlink ref="A198" r:id="rId197"/>
+    <hyperlink ref="A199" r:id="rId198"/>
+    <hyperlink ref="A200" r:id="rId199"/>
+    <hyperlink ref="A201" r:id="rId200"/>
+    <hyperlink ref="A202" r:id="rId201"/>
+    <hyperlink ref="A203" r:id="rId202"/>
+    <hyperlink ref="A204" r:id="rId203"/>
+    <hyperlink ref="A205" r:id="rId204"/>
+    <hyperlink ref="A206" r:id="rId205"/>
+    <hyperlink ref="A207" r:id="rId206"/>
+    <hyperlink ref="A208" r:id="rId207"/>
+    <hyperlink ref="A209" r:id="rId208"/>
+    <hyperlink ref="A210" r:id="rId209"/>
+    <hyperlink ref="A211" r:id="rId210"/>
+    <hyperlink ref="A212" r:id="rId211"/>
+    <hyperlink ref="A213" r:id="rId212"/>
+    <hyperlink ref="A214" r:id="rId213"/>
+    <hyperlink ref="A215" r:id="rId214"/>
+    <hyperlink ref="A216" r:id="rId215"/>
+    <hyperlink ref="A217" r:id="rId216"/>
+    <hyperlink ref="A218" r:id="rId217"/>
+    <hyperlink ref="A219" r:id="rId218"/>
+    <hyperlink ref="A220" r:id="rId219"/>
+    <hyperlink ref="A221" r:id="rId220"/>
+    <hyperlink ref="A222" r:id="rId221"/>
+    <hyperlink ref="A223" r:id="rId222"/>
+    <hyperlink ref="A224" r:id="rId223"/>
+    <hyperlink ref="A225" r:id="rId224"/>
+    <hyperlink ref="A226" r:id="rId225"/>
+    <hyperlink ref="A227" r:id="rId226"/>
+    <hyperlink ref="A228" r:id="rId227"/>
+    <hyperlink ref="A229" r:id="rId228"/>
+    <hyperlink ref="A230" r:id="rId229"/>
+    <hyperlink ref="A231" r:id="rId230"/>
+    <hyperlink ref="A232" r:id="rId231"/>
+    <hyperlink ref="A233" r:id="rId232"/>
+    <hyperlink ref="A234" r:id="rId233"/>
+    <hyperlink ref="A235" r:id="rId234"/>
+    <hyperlink ref="A236" r:id="rId235"/>
+    <hyperlink ref="A237" r:id="rId236"/>
+    <hyperlink ref="A238" r:id="rId237"/>
+    <hyperlink ref="A239" r:id="rId238"/>
+    <hyperlink ref="A240" r:id="rId239"/>
+    <hyperlink ref="A241" r:id="rId240"/>
+    <hyperlink ref="A242" r:id="rId241"/>
+    <hyperlink ref="A243" r:id="rId242"/>
+    <hyperlink ref="A244" r:id="rId243"/>
+    <hyperlink ref="A245" r:id="rId244"/>
+    <hyperlink ref="A246" r:id="rId245"/>
+    <hyperlink ref="A247" r:id="rId246"/>
+    <hyperlink ref="A248" r:id="rId247"/>
+    <hyperlink ref="A249" r:id="rId248"/>
+    <hyperlink ref="A250" r:id="rId249"/>
+    <hyperlink ref="A251" r:id="rId250"/>
+    <hyperlink ref="A252" r:id="rId251"/>
+    <hyperlink ref="A253" r:id="rId252"/>
+    <hyperlink ref="A254" r:id="rId253"/>
+    <hyperlink ref="A255" r:id="rId254"/>
+    <hyperlink ref="A256" r:id="rId255"/>
+    <hyperlink ref="A257" r:id="rId256"/>
+    <hyperlink ref="A258" r:id="rId257"/>
+    <hyperlink ref="A259" r:id="rId258"/>
+    <hyperlink ref="A260" r:id="rId259"/>
+    <hyperlink ref="A261" r:id="rId260"/>
+    <hyperlink ref="A262" r:id="rId261"/>
+    <hyperlink ref="A263" r:id="rId262"/>
+    <hyperlink ref="A264" r:id="rId263"/>
+    <hyperlink ref="A265" r:id="rId264"/>
+    <hyperlink ref="A266" r:id="rId265"/>
+    <hyperlink ref="A267" r:id="rId266"/>
+    <hyperlink ref="A268" r:id="rId267"/>
+    <hyperlink ref="A269" r:id="rId268"/>
+    <hyperlink ref="A270" r:id="rId269"/>
+    <hyperlink ref="A271" r:id="rId270"/>
+    <hyperlink ref="A272" r:id="rId271"/>
+    <hyperlink ref="A273" r:id="rId272"/>
+    <hyperlink ref="A274" r:id="rId273"/>
+    <hyperlink ref="A275" r:id="rId274"/>
+    <hyperlink ref="A276" r:id="rId275"/>
+    <hyperlink ref="A277" r:id="rId276"/>
+    <hyperlink ref="A278" r:id="rId277"/>
+    <hyperlink ref="A279" r:id="rId278"/>
+    <hyperlink ref="A280" r:id="rId279"/>
+    <hyperlink ref="A281" r:id="rId280"/>
+    <hyperlink ref="A282" r:id="rId281"/>
+    <hyperlink ref="A283" r:id="rId282"/>
+    <hyperlink ref="A284" r:id="rId283"/>
+    <hyperlink ref="A285" r:id="rId284"/>
+    <hyperlink ref="A286" r:id="rId285"/>
+    <hyperlink ref="A287" r:id="rId286"/>
+    <hyperlink ref="A288" r:id="rId287"/>
+    <hyperlink ref="A289" r:id="rId288"/>
+    <hyperlink ref="A290" r:id="rId289"/>
+    <hyperlink ref="A291" r:id="rId290"/>
+    <hyperlink ref="A292" r:id="rId291"/>
+    <hyperlink ref="A293" r:id="rId292"/>
+    <hyperlink ref="A294" r:id="rId293"/>
+    <hyperlink ref="A295" r:id="rId294"/>
+    <hyperlink ref="A296" r:id="rId295"/>
+    <hyperlink ref="A297" r:id="rId296"/>
+    <hyperlink ref="A298" r:id="rId297"/>
+    <hyperlink ref="A299" r:id="rId298"/>
+    <hyperlink ref="A300" r:id="rId299"/>
+    <hyperlink ref="A301" r:id="rId300"/>
+    <hyperlink ref="A302" r:id="rId301"/>
+    <hyperlink ref="A303" r:id="rId302"/>
+    <hyperlink ref="A304" r:id="rId303"/>
+    <hyperlink ref="A305" r:id="rId304"/>
+    <hyperlink ref="A306" r:id="rId305"/>
+    <hyperlink ref="A307" r:id="rId306"/>
+    <hyperlink ref="A308" r:id="rId307"/>
+    <hyperlink ref="A309" r:id="rId308"/>
+    <hyperlink ref="A310" r:id="rId309"/>
+    <hyperlink ref="A311" r:id="rId310"/>
+    <hyperlink ref="A312" r:id="rId311"/>
+    <hyperlink ref="A313" r:id="rId312"/>
+    <hyperlink ref="A314" r:id="rId313"/>
+    <hyperlink ref="A315" r:id="rId314"/>
+    <hyperlink ref="A316" r:id="rId315"/>
+    <hyperlink ref="A317" r:id="rId316"/>
+    <hyperlink ref="A318" r:id="rId317"/>
+    <hyperlink ref="A319" r:id="rId318"/>
+    <hyperlink ref="A320" r:id="rId319"/>
+    <hyperlink ref="A321" r:id="rId320"/>
+    <hyperlink ref="A322" r:id="rId321"/>
+    <hyperlink ref="A323" r:id="rId322"/>
+    <hyperlink ref="A324" r:id="rId323"/>
+    <hyperlink ref="A325" r:id="rId324"/>
+    <hyperlink ref="A326" r:id="rId325"/>
+    <hyperlink ref="A327" r:id="rId326"/>
+    <hyperlink ref="A328" r:id="rId327"/>
+    <hyperlink ref="A329" r:id="rId328"/>
+    <hyperlink ref="A330" r:id="rId329"/>
+    <hyperlink ref="A331" r:id="rId330"/>
+    <hyperlink ref="A332" r:id="rId331"/>
+    <hyperlink ref="A333" r:id="rId332"/>
+    <hyperlink ref="A334" r:id="rId333"/>
+    <hyperlink ref="A335" r:id="rId334"/>
+    <hyperlink ref="A336" r:id="rId335"/>
+    <hyperlink ref="A337" r:id="rId336"/>
+    <hyperlink ref="A338" r:id="rId337"/>
+    <hyperlink ref="A339" r:id="rId338"/>
+    <hyperlink ref="A340" r:id="rId339"/>
+    <hyperlink ref="A341" r:id="rId340"/>
+    <hyperlink ref="A342" r:id="rId341"/>
+    <hyperlink ref="A343" r:id="rId342"/>
+    <hyperlink ref="A344" r:id="rId343"/>
+    <hyperlink ref="A345" r:id="rId344"/>
+    <hyperlink ref="A346" r:id="rId345"/>
+    <hyperlink ref="A347" r:id="rId346"/>
+    <hyperlink ref="A348" r:id="rId347"/>
+    <hyperlink ref="A349" r:id="rId348"/>
+    <hyperlink ref="A350" r:id="rId349"/>
+    <hyperlink ref="A351" r:id="rId350"/>
+    <hyperlink ref="A352" r:id="rId351"/>
+    <hyperlink ref="A353" r:id="rId352"/>
+    <hyperlink ref="A354" r:id="rId353"/>
+    <hyperlink ref="A355" r:id="rId354"/>
+    <hyperlink ref="A356" r:id="rId355"/>
+    <hyperlink ref="A357" r:id="rId356"/>
+    <hyperlink ref="A358" r:id="rId357"/>
+    <hyperlink ref="A359" r:id="rId358"/>
+    <hyperlink ref="A360" r:id="rId359"/>
+    <hyperlink ref="A361" r:id="rId360"/>
+    <hyperlink ref="A362" r:id="rId361"/>
+    <hyperlink ref="A363" r:id="rId362"/>
+    <hyperlink ref="A364" r:id="rId363"/>
+    <hyperlink ref="A365" r:id="rId364"/>
+    <hyperlink ref="A366" r:id="rId365"/>
+    <hyperlink ref="A367" r:id="rId366"/>
+    <hyperlink ref="A368" r:id="rId367"/>
+    <hyperlink ref="A369" r:id="rId368"/>
+    <hyperlink ref="A370" r:id="rId369"/>
+    <hyperlink ref="A371" r:id="rId370"/>
+    <hyperlink ref="A372" r:id="rId371"/>
+    <hyperlink ref="A373" r:id="rId372"/>
+    <hyperlink ref="A374" r:id="rId373"/>
+    <hyperlink ref="A375" r:id="rId374"/>
+    <hyperlink ref="A376" r:id="rId375"/>
+    <hyperlink ref="A377" r:id="rId376"/>
+    <hyperlink ref="A378" r:id="rId377"/>
+    <hyperlink ref="A379" r:id="rId378"/>
+    <hyperlink ref="A380" r:id="rId379"/>
+    <hyperlink ref="A381" r:id="rId380"/>
+    <hyperlink ref="A382" r:id="rId381"/>
+    <hyperlink ref="A383" r:id="rId382"/>
+    <hyperlink ref="A384" r:id="rId383"/>
+    <hyperlink ref="A385" r:id="rId384"/>
+    <hyperlink ref="A386" r:id="rId385"/>
+    <hyperlink ref="A387" r:id="rId386"/>
+    <hyperlink ref="A388" r:id="rId387"/>
+    <hyperlink ref="A389" r:id="rId388"/>
+    <hyperlink ref="A390" r:id="rId389"/>
+    <hyperlink ref="A391" r:id="rId390"/>
+    <hyperlink ref="A392" r:id="rId391"/>
+    <hyperlink ref="A393" r:id="rId392"/>
+    <hyperlink ref="A394" r:id="rId393"/>
+    <hyperlink ref="A395" r:id="rId394"/>
+    <hyperlink ref="A396" r:id="rId395"/>
+    <hyperlink ref="A397" r:id="rId396"/>
+    <hyperlink ref="A398" r:id="rId397"/>
+    <hyperlink ref="A399" r:id="rId398"/>
+    <hyperlink ref="A400" r:id="rId399"/>
+    <hyperlink ref="A401" r:id="rId400"/>
+    <hyperlink ref="A402" r:id="rId401"/>
+    <hyperlink ref="A403" r:id="rId402"/>
+    <hyperlink ref="A404" r:id="rId403"/>
+    <hyperlink ref="A405" r:id="rId404"/>
+    <hyperlink ref="A406" r:id="rId405"/>
+    <hyperlink ref="A407" r:id="rId406"/>
+    <hyperlink ref="A408" r:id="rId407"/>
+    <hyperlink ref="A409" r:id="rId408"/>
+    <hyperlink ref="A410" r:id="rId409"/>
+    <hyperlink ref="A411" r:id="rId410"/>
+    <hyperlink ref="A412" r:id="rId411"/>
+    <hyperlink ref="A413" r:id="rId412"/>
+    <hyperlink ref="A414" r:id="rId413"/>
+    <hyperlink ref="A415" r:id="rId414"/>
+    <hyperlink ref="A416" r:id="rId415"/>
+    <hyperlink ref="A417" r:id="rId416"/>
+    <hyperlink ref="A418" r:id="rId417"/>
+    <hyperlink ref="A419" r:id="rId418"/>
+    <hyperlink ref="A420" r:id="rId419"/>
+    <hyperlink ref="A421" r:id="rId420"/>
+    <hyperlink ref="A422" r:id="rId421"/>
+    <hyperlink ref="A423" r:id="rId422"/>
+    <hyperlink ref="A424" r:id="rId423"/>
+    <hyperlink ref="A425" r:id="rId424"/>
+    <hyperlink ref="A426" r:id="rId425"/>
+    <hyperlink ref="A427" r:id="rId426"/>
+    <hyperlink ref="A428" r:id="rId427"/>
+    <hyperlink ref="A429" r:id="rId428"/>
+    <hyperlink ref="A430" r:id="rId429"/>
+    <hyperlink ref="A431" r:id="rId430"/>
+    <hyperlink ref="A432" r:id="rId431"/>
+    <hyperlink ref="A433" r:id="rId432"/>
+    <hyperlink ref="A434" r:id="rId433"/>
+    <hyperlink ref="A435" r:id="rId434"/>
+    <hyperlink ref="A436" r:id="rId435"/>
+    <hyperlink ref="A437" r:id="rId436"/>
+    <hyperlink ref="A438" r:id="rId437"/>
+    <hyperlink ref="A439" r:id="rId438"/>
+    <hyperlink ref="A440" r:id="rId439"/>
+    <hyperlink ref="A441" r:id="rId440"/>
+    <hyperlink ref="A442" r:id="rId441"/>
+    <hyperlink ref="A443" r:id="rId442"/>
+    <hyperlink ref="A444" r:id="rId443"/>
+    <hyperlink ref="A445" r:id="rId444"/>
+    <hyperlink ref="A446" r:id="rId445"/>
+    <hyperlink ref="A447" r:id="rId446"/>
+    <hyperlink ref="A448" r:id="rId447"/>
+    <hyperlink ref="A449" r:id="rId448"/>
+    <hyperlink ref="A450" r:id="rId449"/>
+    <hyperlink ref="A451" r:id="rId450"/>
+    <hyperlink ref="A452" r:id="rId451"/>
+    <hyperlink ref="A453" r:id="rId452"/>
+    <hyperlink ref="A454" r:id="rId453"/>
+    <hyperlink ref="A455" r:id="rId454"/>
+    <hyperlink ref="A456" r:id="rId455"/>
+    <hyperlink ref="A457" r:id="rId456"/>
+    <hyperlink ref="A458" r:id="rId457"/>
+    <hyperlink ref="A459" r:id="rId458"/>
+    <hyperlink ref="A460" r:id="rId459"/>
+    <hyperlink ref="A461" r:id="rId460"/>
+    <hyperlink ref="A462" r:id="rId461"/>
+    <hyperlink ref="A463" r:id="rId462"/>
+    <hyperlink ref="A464" r:id="rId463"/>
+    <hyperlink ref="A465" r:id="rId464"/>
+    <hyperlink ref="A466" r:id="rId465"/>
+    <hyperlink ref="A467" r:id="rId466"/>
+    <hyperlink ref="A468" r:id="rId467"/>
+    <hyperlink ref="A469" r:id="rId468"/>
+    <hyperlink ref="A470" r:id="rId469"/>
+    <hyperlink ref="A471" r:id="rId470"/>
+    <hyperlink ref="A472" r:id="rId471"/>
+    <hyperlink ref="A473" r:id="rId472"/>
+    <hyperlink ref="A474" r:id="rId473"/>
+    <hyperlink ref="A475" r:id="rId474"/>
+    <hyperlink ref="A476" r:id="rId475"/>
+    <hyperlink ref="A477" r:id="rId476"/>
+    <hyperlink ref="A478" r:id="rId477"/>
+    <hyperlink ref="A479" r:id="rId478"/>
+    <hyperlink ref="A480" r:id="rId479"/>
+    <hyperlink ref="A481" r:id="rId480"/>
+    <hyperlink ref="A482" r:id="rId481"/>
+    <hyperlink ref="A483" r:id="rId482"/>
+    <hyperlink ref="A484" r:id="rId483"/>
+    <hyperlink ref="A485" r:id="rId484"/>
+    <hyperlink ref="A486" r:id="rId485"/>
+    <hyperlink ref="A487" r:id="rId486"/>
+    <hyperlink ref="A488" r:id="rId487"/>
+    <hyperlink ref="A489" r:id="rId488"/>
+    <hyperlink ref="A490" r:id="rId489"/>
+    <hyperlink ref="A491" r:id="rId490"/>
+    <hyperlink ref="A492" r:id="rId491"/>
+    <hyperlink ref="A493" r:id="rId492"/>
+    <hyperlink ref="A494" r:id="rId493"/>
+    <hyperlink ref="A495" r:id="rId494"/>
+    <hyperlink ref="A496" r:id="rId495"/>
+    <hyperlink ref="A497" r:id="rId496"/>
+    <hyperlink ref="A498" r:id="rId497"/>
+    <hyperlink ref="A499" r:id="rId498"/>
+    <hyperlink ref="A500" r:id="rId499"/>
+    <hyperlink ref="A501" r:id="rId500"/>
+    <hyperlink ref="A502" r:id="rId501"/>
+    <hyperlink ref="A503" r:id="rId502"/>
+    <hyperlink ref="A504" r:id="rId503"/>
+    <hyperlink ref="A505" r:id="rId504"/>
+    <hyperlink ref="A506" r:id="rId505"/>
+    <hyperlink ref="A507" r:id="rId506"/>
+    <hyperlink ref="A508" r:id="rId507"/>
+    <hyperlink ref="A509" r:id="rId508"/>
+    <hyperlink ref="A510" r:id="rId509"/>
+    <hyperlink ref="A511" r:id="rId510"/>
+    <hyperlink ref="A512" r:id="rId511"/>
+    <hyperlink ref="A513" r:id="rId512"/>
+    <hyperlink ref="A514" r:id="rId513"/>
+    <hyperlink ref="A515" r:id="rId514"/>
+    <hyperlink ref="A516" r:id="rId515"/>
+    <hyperlink ref="A517" r:id="rId516"/>
+    <hyperlink ref="A518" r:id="rId517"/>
+    <hyperlink ref="A519" r:id="rId518"/>
+    <hyperlink ref="A520" r:id="rId519"/>
+    <hyperlink ref="A521" r:id="rId520"/>
+    <hyperlink ref="A522" r:id="rId521"/>
+    <hyperlink ref="A523" r:id="rId522"/>
+    <hyperlink ref="A524" r:id="rId523"/>
+    <hyperlink ref="A525" r:id="rId524"/>
+    <hyperlink ref="A526" r:id="rId525"/>
+    <hyperlink ref="A527" r:id="rId526"/>
+    <hyperlink ref="A528" r:id="rId527"/>
+    <hyperlink ref="A529" r:id="rId528"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
